--- a/www.eia.gov/forecasts/steo/xls/Fig20.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig20.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Consumption (million short tons)</t>
@@ -50,7 +50,7 @@
     <t>Total consumption</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Consumption (million short tons)</t>
@@ -327,13 +327,13 @@
                   <c:v>-113.1577768300001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-59.743930999999975</c:v>
+                  <c:v>-60.495893719999913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.335948320000057</c:v>
+                  <c:v>13.243051039999955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10.515520000000038</c:v>
+                  <c:v>3.8100200000000086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,13 +509,13 @@
                   <c:v>-4.8707839330000056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.4892325549999939</c:v>
+                  <c:v>-4.9537854209999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7369284180000051</c:v>
+                  <c:v>-0.53500964199999856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3025870000000026</c:v>
+                  <c:v>1.6417580900000033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,13 +696,13 @@
                   <c:v>-1.5882379369999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4641360429999999</c:v>
+                  <c:v>-1.1314329480000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59048400000000001</c:v>
+                  <c:v>0.17855190499999907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21849599999999825</c:v>
+                  <c:v>0.44166299999999836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,8 +717,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="639798192"/>
-        <c:axId val="639798752"/>
+        <c:axId val="592542160"/>
+        <c:axId val="592538800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -935,22 +935,22 @@
                   <c:v>54.929549233000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.187502706999993</c:v>
+                  <c:v>66.472804433999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.585182905000003</c:v>
+                  <c:v>55.036988481000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.618475924999998</c:v>
+                  <c:v>44.394928446000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.375005029999997</c:v>
+                  <c:v>43.162640940000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.353578519999999</c:v>
+                  <c:v>49.191908746000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.73449857</c:v>
+                  <c:v>67.526483970000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>78.758535675000005</c:v>
@@ -962,16 +962,16 @@
                   <c:v>66.813819809999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.319074895999996</c:v>
+                  <c:v>59.319094456000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.523936200000001</c:v>
+                  <c:v>52.39786101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.635892440000006</c:v>
+                  <c:v>69.946611919999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>64.285952710000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1293,79 +1293,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.635892440000006</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.690989999999999</c:v>
+                  <c:v>64.285952710000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.127839999999999</c:v>
+                  <c:v>58.125700000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.281370000000003</c:v>
+                  <c:v>56.147539999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.912430000000001</c:v>
+                  <c:v>48.140639999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56.07734</c:v>
+                  <c:v>53.537860000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.861180000000004</c:v>
+                  <c:v>63.580559999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.659710000000004</c:v>
+                  <c:v>76.249650000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78.658929999999998</c:v>
+                  <c:v>78.131460000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>63.670990000000003</c:v>
+                  <c:v>62.701650000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.625979999999998</c:v>
+                  <c:v>57.17633</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57.887520000000002</c:v>
+                  <c:v>55.543129999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>73.152600000000007</c:v>
+                  <c:v>70.799689999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71.576319999999996</c:v>
+                  <c:v>72.706119999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.69314</c:v>
+                  <c:v>58.373939999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.973599999999998</c:v>
+                  <c:v>55.526209999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.622570000000003</c:v>
+                  <c:v>49.20805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>54.648130000000002</c:v>
+                  <c:v>53.371290000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63.921340000000001</c:v>
+                  <c:v>62.843850000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75.882890000000003</c:v>
+                  <c:v>75.065119999999993</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>77.965339999999998</c:v>
+                  <c:v>77.135990000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.266120000000001</c:v>
+                  <c:v>62.252549999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58.280549999999998</c:v>
+                  <c:v>57.027050000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.647219999999997</c:v>
+                  <c:v>55.347369999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74.135210000000001</c:v>
+                  <c:v>71.456059999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639797072"/>
-        <c:axId val="639797632"/>
+        <c:axId val="592527040"/>
+        <c:axId val="592536560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639797072"/>
+        <c:axId val="592527040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1403,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="639797632"/>
+        <c:crossAx val="592536560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1414,7 +1414,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639797632"/>
+        <c:axId val="592536560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1442,14 +1442,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="639797072"/>
+        <c:crossAx val="592527040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="4"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="639798192"/>
+        <c:axId val="592542160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1466,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="639798752"/>
+        <c:crossAx val="592538800"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639798752"/>
+        <c:axId val="592538800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1491,7 +1491,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="639798192"/>
+        <c:crossAx val="592542160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,7 +1664,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1793,13 +1793,13 @@
             <v>-113.1577768300001</v>
           </cell>
           <cell r="K27">
-            <v>-59.743930999999975</v>
+            <v>-60.495893719999913</v>
           </cell>
           <cell r="L27">
-            <v>41.335948320000057</v>
+            <v>13.243051039999955</v>
           </cell>
           <cell r="M27">
-            <v>-10.515520000000038</v>
+            <v>3.8100200000000086</v>
           </cell>
         </row>
         <row r="28">
@@ -1807,13 +1807,13 @@
             <v>-4.8707839330000056</v>
           </cell>
           <cell r="K28">
-            <v>-2.4892325549999939</v>
+            <v>-4.9537854209999992</v>
           </cell>
           <cell r="L28">
-            <v>-2.7369284180000051</v>
+            <v>-0.53500964199999856</v>
           </cell>
           <cell r="M28">
-            <v>1.3025870000000026</v>
+            <v>1.6417580900000033</v>
           </cell>
         </row>
         <row r="29">
@@ -1821,13 +1821,13 @@
             <v>-1.5882379369999988</v>
           </cell>
           <cell r="K29">
-            <v>-1.4641360429999999</v>
+            <v>-1.1314329480000005</v>
           </cell>
           <cell r="L29">
-            <v>0.59048400000000001</v>
+            <v>0.17855190499999907</v>
           </cell>
           <cell r="M29">
-            <v>0.21849599999999825</v>
+            <v>0.44166299999999836</v>
           </cell>
         </row>
         <row r="36">
@@ -1967,7 +1967,7 @@
             <v>42370</v>
           </cell>
           <cell r="C48">
-            <v>67.187502706999993</v>
+            <v>66.472804433999997</v>
           </cell>
           <cell r="D48" t="e">
             <v>#N/A</v>
@@ -1978,7 +1978,7 @@
             <v>42401</v>
           </cell>
           <cell r="C49">
-            <v>55.585182905000003</v>
+            <v>55.036988481000002</v>
           </cell>
           <cell r="D49" t="e">
             <v>#N/A</v>
@@ -1989,7 +1989,7 @@
             <v>42430</v>
           </cell>
           <cell r="C50">
-            <v>44.618475924999998</v>
+            <v>44.394928446000002</v>
           </cell>
           <cell r="D50" t="e">
             <v>#N/A</v>
@@ -2000,7 +2000,7 @@
             <v>42461</v>
           </cell>
           <cell r="C51">
-            <v>43.375005029999997</v>
+            <v>43.162640940000003</v>
           </cell>
           <cell r="D51" t="e">
             <v>#N/A</v>
@@ -2011,7 +2011,7 @@
             <v>42491</v>
           </cell>
           <cell r="C52">
-            <v>49.353578519999999</v>
+            <v>49.191908746000003</v>
           </cell>
           <cell r="D52" t="e">
             <v>#N/A</v>
@@ -2022,7 +2022,7 @@
             <v>42522</v>
           </cell>
           <cell r="C53">
-            <v>67.73449857</v>
+            <v>67.526483970000001</v>
           </cell>
           <cell r="D53" t="e">
             <v>#N/A</v>
@@ -2066,7 +2066,7 @@
             <v>42644</v>
           </cell>
           <cell r="C57">
-            <v>59.319074895999996</v>
+            <v>59.319094456000002</v>
           </cell>
           <cell r="D57" t="e">
             <v>#N/A</v>
@@ -2077,7 +2077,7 @@
             <v>42675</v>
           </cell>
           <cell r="C58">
-            <v>51.523936200000001</v>
+            <v>52.39786101</v>
           </cell>
           <cell r="D58" t="e">
             <v>#N/A</v>
@@ -2088,21 +2088,21 @@
             <v>42705</v>
           </cell>
           <cell r="C59">
-            <v>71.635892440000006</v>
-          </cell>
-          <cell r="D59">
-            <v>71.635892440000006</v>
+            <v>69.946611919999995</v>
+          </cell>
+          <cell r="D59" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>42736</v>
           </cell>
-          <cell r="C60" t="e">
-            <v>#N/A</v>
+          <cell r="C60">
+            <v>64.285952710000004</v>
           </cell>
           <cell r="D60">
-            <v>72.690989999999999</v>
+            <v>64.285952710000004</v>
           </cell>
         </row>
         <row r="61">
@@ -2113,7 +2113,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D61">
-            <v>61.127839999999999</v>
+            <v>58.125700000000002</v>
           </cell>
         </row>
         <row r="62">
@@ -2124,7 +2124,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>58.281370000000003</v>
+            <v>56.147539999999999</v>
           </cell>
         </row>
         <row r="63">
@@ -2135,7 +2135,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>51.912430000000001</v>
+            <v>48.140639999999998</v>
           </cell>
         </row>
         <row r="64">
@@ -2146,7 +2146,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>56.07734</v>
+            <v>53.537860000000002</v>
           </cell>
         </row>
         <row r="65">
@@ -2157,7 +2157,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>64.861180000000004</v>
+            <v>63.580559999999998</v>
           </cell>
         </row>
         <row r="66">
@@ -2168,7 +2168,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>76.659710000000004</v>
+            <v>76.249650000000003</v>
           </cell>
         </row>
         <row r="67">
@@ -2179,7 +2179,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>78.658929999999998</v>
+            <v>78.131460000000004</v>
           </cell>
         </row>
         <row r="68">
@@ -2190,7 +2190,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>63.670990000000003</v>
+            <v>62.701650000000001</v>
           </cell>
         </row>
         <row r="69">
@@ -2201,7 +2201,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>58.625979999999998</v>
+            <v>57.17633</v>
           </cell>
         </row>
         <row r="70">
@@ -2212,7 +2212,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>57.887520000000002</v>
+            <v>55.543129999999998</v>
           </cell>
         </row>
         <row r="71">
@@ -2223,7 +2223,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>73.152600000000007</v>
+            <v>70.799689999999998</v>
           </cell>
         </row>
         <row r="72">
@@ -2234,7 +2234,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>71.576319999999996</v>
+            <v>72.706119999999999</v>
           </cell>
         </row>
         <row r="73">
@@ -2245,7 +2245,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>59.69314</v>
+            <v>58.373939999999997</v>
           </cell>
         </row>
         <row r="74">
@@ -2256,7 +2256,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>56.973599999999998</v>
+            <v>55.526209999999999</v>
           </cell>
         </row>
         <row r="75">
@@ -2267,7 +2267,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>50.622570000000003</v>
+            <v>49.20805</v>
           </cell>
         </row>
         <row r="76">
@@ -2278,7 +2278,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>54.648130000000002</v>
+            <v>53.371290000000002</v>
           </cell>
         </row>
         <row r="77">
@@ -2289,7 +2289,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>63.921340000000001</v>
+            <v>62.843850000000003</v>
           </cell>
         </row>
         <row r="78">
@@ -2300,7 +2300,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>75.882890000000003</v>
+            <v>75.065119999999993</v>
           </cell>
         </row>
         <row r="79">
@@ -2311,7 +2311,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>77.965339999999998</v>
+            <v>77.135990000000007</v>
           </cell>
         </row>
         <row r="80">
@@ -2322,7 +2322,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>63.266120000000001</v>
+            <v>62.252549999999999</v>
           </cell>
         </row>
         <row r="81">
@@ -2333,7 +2333,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>58.280549999999998</v>
+            <v>57.027050000000003</v>
           </cell>
         </row>
         <row r="82">
@@ -2344,7 +2344,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>57.647219999999997</v>
+            <v>55.347369999999998</v>
           </cell>
         </row>
         <row r="83">
@@ -2355,7 +2355,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D83">
-            <v>74.135210000000001</v>
+            <v>71.456059999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -2716,13 +2716,13 @@
         <v>738.44408267999995</v>
       </c>
       <c r="F27" s="10">
-        <v>678.70015167999998</v>
+        <v>677.94818896000004</v>
       </c>
       <c r="G27" s="10">
-        <v>720.03610000000003</v>
+        <v>691.19123999999999</v>
       </c>
       <c r="H27" s="10">
-        <v>709.52058</v>
+        <v>695.00126</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12">
@@ -2731,15 +2731,15 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>-59.743930999999975</v>
+        <v>-60.495893719999913</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="0"/>
-        <v>41.335948320000057</v>
+        <v>13.243051039999955</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="0"/>
-        <v>-10.515520000000038</v>
+        <v>3.8100200000000086</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2753,13 +2753,13 @@
         <v>39.962199972999997</v>
       </c>
       <c r="F28" s="10">
-        <v>37.472967418000003</v>
+        <v>35.008414551999998</v>
       </c>
       <c r="G28" s="10">
-        <v>34.736038999999998</v>
+        <v>34.473404909999999</v>
       </c>
       <c r="H28" s="10">
-        <v>36.038626000000001</v>
+        <v>36.115163000000003</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
@@ -2768,15 +2768,15 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>-2.4892325549999939</v>
+        <v>-4.9537854209999992</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>-2.7369284180000051</v>
+        <v>-0.53500964199999856</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="0"/>
-        <v>1.3025870000000026</v>
+        <v>1.6417580900000033</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2790,13 +2790,13 @@
         <v>19.708397043000002</v>
       </c>
       <c r="F29" s="10">
-        <v>18.244261000000002</v>
+        <v>18.576964095000001</v>
       </c>
       <c r="G29" s="10">
-        <v>18.834745000000002</v>
+        <v>18.755516</v>
       </c>
       <c r="H29" s="10">
-        <v>19.053241</v>
+        <v>19.197178999999998</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="12">
@@ -2805,15 +2805,15 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>-1.4641360429999999</v>
+        <v>-1.1314329480000005</v>
       </c>
       <c r="L29" s="12">
         <f t="shared" si="0"/>
-        <v>0.59048400000000001</v>
+        <v>0.17855190499999907</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="0"/>
-        <v>0.21849599999999825</v>
+        <v>0.44166299999999836</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2828,13 +2828,13 @@
         <v>798.11467970000001</v>
       </c>
       <c r="F30" s="14">
-        <v>734.41739329999996</v>
+        <v>731.53356851000001</v>
       </c>
       <c r="G30" s="14">
-        <v>773.60688000000005</v>
+        <v>744.42016271</v>
       </c>
       <c r="H30" s="14">
-        <v>764.61243000000002</v>
+        <v>750.31359999999995</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="16">
@@ -2843,15 +2843,15 @@
       </c>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
-        <v>-63.697286400000053</v>
+        <v>-66.581111190000001</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
-        <v>39.189486700000089</v>
+        <v>12.88659419999999</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" si="0"/>
-        <v>-8.9944500000000289</v>
+        <v>5.8934372899999516</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>42370</v>
       </c>
       <c r="C48" s="23">
-        <v>67.187502706999993</v>
+        <v>66.472804433999997</v>
       </c>
       <c r="D48" s="23" t="e">
         <v>#N/A</v>
@@ -3034,7 +3034,7 @@
         <v>42401</v>
       </c>
       <c r="C49" s="23">
-        <v>55.585182905000003</v>
+        <v>55.036988481000002</v>
       </c>
       <c r="D49" s="23" t="e">
         <v>#N/A</v>
@@ -3045,7 +3045,7 @@
         <v>42430</v>
       </c>
       <c r="C50" s="23">
-        <v>44.618475924999998</v>
+        <v>44.394928446000002</v>
       </c>
       <c r="D50" s="23" t="e">
         <v>#N/A</v>
@@ -3056,7 +3056,7 @@
         <v>42461</v>
       </c>
       <c r="C51" s="23">
-        <v>43.375005029999997</v>
+        <v>43.162640940000003</v>
       </c>
       <c r="D51" s="23" t="e">
         <v>#N/A</v>
@@ -3067,7 +3067,7 @@
         <v>42491</v>
       </c>
       <c r="C52" s="23">
-        <v>49.353578519999999</v>
+        <v>49.191908746000003</v>
       </c>
       <c r="D52" s="23" t="e">
         <v>#N/A</v>
@@ -3078,7 +3078,7 @@
         <v>42522</v>
       </c>
       <c r="C53" s="23">
-        <v>67.73449857</v>
+        <v>67.526483970000001</v>
       </c>
       <c r="D53" s="23" t="e">
         <v>#N/A</v>
@@ -3122,7 +3122,7 @@
         <v>42644</v>
       </c>
       <c r="C57" s="23">
-        <v>59.319074895999996</v>
+        <v>59.319094456000002</v>
       </c>
       <c r="D57" s="23" t="e">
         <v>#N/A</v>
@@ -3133,7 +3133,7 @@
         <v>42675</v>
       </c>
       <c r="C58" s="23">
-        <v>51.523936200000001</v>
+        <v>52.39786101</v>
       </c>
       <c r="D58" s="23" t="e">
         <v>#N/A</v>
@@ -3144,21 +3144,21 @@
         <v>42705</v>
       </c>
       <c r="C59" s="23">
-        <v>71.635892440000006</v>
-      </c>
-      <c r="D59" s="23">
-        <v>71.635892440000006</v>
+        <v>69.946611919999995</v>
+      </c>
+      <c r="D59" s="23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="22">
         <v>42736</v>
       </c>
-      <c r="C60" s="23" t="e">
-        <v>#N/A</v>
+      <c r="C60" s="23">
+        <v>64.285952710000004</v>
       </c>
       <c r="D60" s="23">
-        <v>72.690989999999999</v>
+        <v>64.285952710000004</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -3169,7 +3169,7 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="23">
-        <v>61.127839999999999</v>
+        <v>58.125700000000002</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="23">
-        <v>58.281370000000003</v>
+        <v>56.147539999999999</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="23">
-        <v>51.912430000000001</v>
+        <v>48.140639999999998</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="23">
-        <v>56.07734</v>
+        <v>53.537860000000002</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="23">
-        <v>64.861180000000004</v>
+        <v>63.580559999999998</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="23">
-        <v>76.659710000000004</v>
+        <v>76.249650000000003</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3235,7 +3235,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="23">
-        <v>78.658929999999998</v>
+        <v>78.131460000000004</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="23">
-        <v>63.670990000000003</v>
+        <v>62.701650000000001</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="23">
-        <v>58.625979999999998</v>
+        <v>57.17633</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="23">
-        <v>57.887520000000002</v>
+        <v>55.543129999999998</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="23">
-        <v>73.152600000000007</v>
+        <v>70.799689999999998</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="23">
-        <v>71.576319999999996</v>
+        <v>72.706119999999999</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="23">
-        <v>59.69314</v>
+        <v>58.373939999999997</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="23">
-        <v>56.973599999999998</v>
+        <v>55.526209999999999</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="23">
-        <v>50.622570000000003</v>
+        <v>49.20805</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="23">
-        <v>54.648130000000002</v>
+        <v>53.371290000000002</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="23">
-        <v>63.921340000000001</v>
+        <v>62.843850000000003</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="23">
-        <v>75.882890000000003</v>
+        <v>75.065119999999993</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="23">
-        <v>77.965339999999998</v>
+        <v>77.135990000000007</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="23">
-        <v>63.266120000000001</v>
+        <v>62.252549999999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="23">
-        <v>58.280549999999998</v>
+        <v>57.027050000000003</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="23">
-        <v>57.647219999999997</v>
+        <v>55.347369999999998</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="25">
-        <v>74.135210000000001</v>
+        <v>71.456059999999994</v>
       </c>
     </row>
   </sheetData>
